--- a/GACTest/src/main/java/com/gac/qa/testdata/testdata.xlsx
+++ b/GACTest/src/main/java/com/gac/qa/testdata/testdata.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
     <sheet name="profileSetting" sheetId="2" r:id="rId2"/>
     <sheet name="changePass" sheetId="3" r:id="rId3"/>
+    <sheet name="companySettings" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Username</t>
   </si>
@@ -67,6 +68,84 @@
   </si>
   <si>
     <t>Test@1234</t>
+  </si>
+  <si>
+    <t>comp</t>
+  </si>
+  <si>
+    <t>contactP</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>postCode</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>cntry</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>B2 B2</t>
+  </si>
+  <si>
+    <t>JJ11 213</t>
+  </si>
+  <si>
+    <t>BKK00 012</t>
+  </si>
+  <si>
+    <t>Huaykwang</t>
+  </si>
+  <si>
+    <t>Huaykwang Abc</t>
+  </si>
+  <si>
+    <t>10210 011</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>12345 543</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2 </t>
+  </si>
+  <si>
+    <t>JJ11</t>
+  </si>
+  <si>
+    <t>BKK00</t>
+  </si>
+  <si>
+    <t>THB</t>
+  </si>
+  <si>
+    <t>THAILAND</t>
+  </si>
+  <si>
+    <t>10211</t>
+  </si>
+  <si>
+    <t>12346</t>
   </si>
 </sst>
 </file>
@@ -140,11 +219,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -564,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -607,4 +687,113 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>